--- a/spec/files/proxy.xlsx
+++ b/spec/files/proxy.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
-    <sheet name="Lookups" sheetId="11" r:id="rId5"/>
+    <sheet name="Outputs" sheetId="12" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
+    <sheet name="Lookups" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="534">
   <si>
     <t>type</t>
   </si>
@@ -1607,6 +1609,27 @@
   </si>
   <si>
     <t>0.1.10</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
   </si>
 </sst>
 </file>
@@ -4731,17 +4754,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4761,22 +4784,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
       <c r="B1" s="26"/>
       <c r="C1" s="21"/>
@@ -4786,7 +4809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1">
+    <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>453</v>
       </c>
@@ -4796,7 +4819,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>454</v>
       </c>
@@ -4807,7 +4830,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>482</v>
       </c>
@@ -4818,7 +4841,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>463</v>
       </c>
@@ -4841,7 +4864,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>464</v>
       </c>
@@ -4864,7 +4887,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>485</v>
       </c>
@@ -4878,7 +4901,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
@@ -4892,7 +4915,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>517</v>
       </c>
@@ -4904,7 +4927,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>518</v>
       </c>
@@ -4914,7 +4937,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>519</v>
       </c>
@@ -4924,7 +4947,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="13" customFormat="1">
+    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
@@ -4934,7 +4957,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -4945,7 +4968,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4953,7 +4976,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -4961,7 +4984,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -4973,7 +4996,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>477</v>
       </c>
@@ -4981,7 +5004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>475</v>
       </c>
@@ -4993,7 +5016,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5001,7 +5024,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -5009,7 +5032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>473</v>
       </c>
@@ -5018,7 +5041,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +5055,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -5040,7 +5063,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
@@ -5058,7 +5081,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -5076,7 +5099,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -5126,25 +5149,25 @@
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5172,7 +5195,7 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5185,7 +5208,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5250,7 +5273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5261,7 +5284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5283,7 +5306,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5307,7 +5330,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5338,7 +5361,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5378,7 +5401,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5406,7 +5429,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5434,7 +5457,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5462,7 +5485,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5490,7 +5513,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5518,7 +5541,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5546,7 +5569,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5574,7 +5597,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1">
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5588,7 +5611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5611,7 +5634,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5647,7 +5670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5667,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1">
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5687,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1">
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5707,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5725,7 +5748,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5763,7 +5786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5781,7 +5804,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5819,7 +5842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5841,7 +5864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5866,7 +5889,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5884,7 +5907,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5922,7 +5945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5944,7 +5967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -5986,25 +6009,417 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="15"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="19"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:W15"/>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6023,7 +6438,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -6044,7 +6459,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -6067,7 +6482,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -6090,7 +6505,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -6113,7 +6528,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -6136,7 +6551,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -6159,7 +6574,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -6182,7 +6597,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -6205,7 +6620,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -6228,7 +6643,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6247,7 +6662,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -6268,7 +6683,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -6291,7 +6706,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -6314,7 +6729,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -6337,7 +6752,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -6360,7 +6775,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6383,7 +6798,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -6406,7 +6821,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6429,7 +6844,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6452,7 +6867,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6471,7 +6886,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6494,7 +6909,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6517,7 +6932,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6540,7 +6955,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6563,7 +6978,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -6586,7 +7001,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -6609,7 +7024,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -6632,7 +7047,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -6655,7 +7070,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -6678,7 +7093,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -6697,7 +7112,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -6718,7 +7133,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -6741,7 +7156,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -6764,7 +7179,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6787,7 +7202,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -6810,7 +7225,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -6833,7 +7248,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -6856,7 +7271,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -6879,7 +7294,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6902,7 +7317,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6921,7 +7336,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -6942,7 +7357,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6965,7 +7380,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6988,7 +7403,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -7011,7 +7426,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -7034,7 +7449,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -7057,7 +7472,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -7080,7 +7495,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -7103,7 +7518,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7126,7 +7541,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7145,7 +7560,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7166,7 +7581,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7189,7 +7604,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -7212,7 +7627,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -7235,7 +7650,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7258,7 +7673,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7281,7 +7696,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7304,7 +7719,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7327,7 +7742,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7350,7 +7765,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7369,7 +7784,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7390,7 +7805,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -7415,7 +7830,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7438,7 +7853,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -7461,7 +7876,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7484,7 +7899,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7507,7 +7922,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7530,7 +7945,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7553,7 +7968,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7576,7 +7991,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7599,7 +8014,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7618,7 +8033,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7639,7 +8054,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7662,7 +8077,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7687,7 +8102,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7710,7 +8125,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7733,7 +8148,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7756,7 +8171,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7779,7 +8194,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -7802,7 +8217,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7825,7 +8240,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -7848,7 +8263,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -7871,7 +8286,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -7894,7 +8309,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -7917,7 +8332,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -7936,7 +8351,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -7959,7 +8374,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -7982,7 +8397,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -8005,7 +8420,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -8028,7 +8443,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -8051,7 +8466,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -8074,7 +8489,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -8097,7 +8512,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -8120,7 +8535,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -8143,7 +8558,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8166,7 +8581,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8185,7 +8600,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8210,7 +8625,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8229,7 +8644,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8250,7 +8665,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8275,7 +8690,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8294,7 +8709,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8317,7 +8732,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8342,7 +8757,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8365,7 +8780,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8386,7 +8801,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8405,7 +8820,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8430,7 +8845,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -8453,7 +8868,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8476,7 +8891,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -8499,7 +8914,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8522,7 +8937,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8545,7 +8960,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8568,7 +8983,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8587,7 +9002,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8610,7 +9025,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8633,7 +9048,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8656,7 +9071,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8675,7 +9090,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -8698,7 +9113,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8721,7 +9136,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -8744,7 +9159,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -8767,7 +9182,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8790,7 +9205,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -8813,7 +9228,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8832,7 +9247,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -8857,7 +9272,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -8880,7 +9295,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -8903,7 +9318,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -8926,7 +9341,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -8949,7 +9364,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -8972,7 +9387,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -8995,7 +9410,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -9018,7 +9433,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -9041,7 +9456,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9060,7 +9475,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -9085,7 +9500,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -9106,7 +9521,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -9129,7 +9544,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -9152,7 +9567,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -9175,7 +9590,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -9198,7 +9613,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -9221,7 +9636,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -9244,7 +9659,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -9267,7 +9682,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -9290,7 +9705,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -9313,7 +9728,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -9336,7 +9751,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -9359,7 +9774,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -9382,7 +9797,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9401,7 +9816,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -9424,7 +9839,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9443,7 +9858,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -9466,7 +9881,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -9489,7 +9904,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9508,7 +9923,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -9533,7 +9948,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -9556,7 +9971,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -9579,7 +9994,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -9602,7 +10017,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -9625,7 +10040,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -9648,7 +10063,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -9671,7 +10086,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -9694,7 +10109,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -9717,7 +10132,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -9740,7 +10155,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -9759,7 +10174,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -9784,7 +10199,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -9807,7 +10222,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -9830,7 +10245,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -9853,7 +10268,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -9876,7 +10291,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -9899,7 +10314,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -9922,7 +10337,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -9945,7 +10360,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -9968,7 +10383,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -9991,7 +10406,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10010,7 +10425,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -10033,7 +10448,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -10056,7 +10471,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -10079,7 +10494,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -10102,7 +10517,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10121,7 +10536,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -10144,7 +10559,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -10167,7 +10582,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -10190,7 +10605,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -10213,7 +10628,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10232,7 +10647,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -10253,7 +10668,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -10276,7 +10691,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10295,7 +10710,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -10318,7 +10733,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -10343,7 +10758,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -10364,7 +10779,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -10389,7 +10804,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -10414,7 +10829,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10433,7 +10848,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -10458,7 +10873,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -10481,7 +10896,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -10504,7 +10919,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -10527,7 +10942,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -10550,7 +10965,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -10573,7 +10988,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -10596,7 +11011,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -10619,7 +11034,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -10642,7 +11057,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10661,7 +11076,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -10686,7 +11101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -10709,7 +11124,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -10732,7 +11147,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -10755,7 +11170,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -10778,7 +11193,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -10801,7 +11216,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -10824,7 +11239,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -10847,7 +11262,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -10870,7 +11285,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -10889,7 +11304,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -10910,7 +11325,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -10933,7 +11348,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -10956,7 +11371,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -10979,7 +11394,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -11002,7 +11417,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -11025,7 +11440,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -11048,7 +11463,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -11071,7 +11486,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -11094,7 +11509,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -11117,7 +11532,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -11140,7 +11555,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -11163,7 +11578,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -11186,7 +11601,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -11209,7 +11624,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -11232,7 +11647,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -11255,7 +11670,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11274,7 +11689,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -11295,7 +11710,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -11318,7 +11733,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -11341,7 +11756,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -11364,7 +11779,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -11387,7 +11802,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -11410,7 +11825,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -11433,7 +11848,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -11456,7 +11871,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -11479,7 +11894,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -11502,7 +11917,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -11525,7 +11940,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -11548,7 +11963,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -11571,7 +11986,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -11594,7 +12009,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -11617,7 +12032,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -11640,7 +12055,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11659,7 +12074,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -11684,7 +12099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -11707,7 +12122,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -11730,7 +12145,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -11753,7 +12168,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -11776,7 +12191,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -11795,7 +12210,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -11820,7 +12235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -11843,7 +12258,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -11862,7 +12277,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -11881,7 +12296,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -11900,7 +12315,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -11921,7 +12336,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -11944,7 +12359,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -11967,7 +12382,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -11990,7 +12405,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -12013,7 +12428,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -12036,7 +12451,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -12059,7 +12474,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -12082,7 +12497,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -12105,7 +12520,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -12128,7 +12543,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -12151,7 +12566,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12170,7 +12585,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -12193,7 +12608,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12212,7 +12627,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -12237,7 +12652,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -12260,7 +12675,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -12283,7 +12698,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -12306,7 +12721,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -12329,7 +12744,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -12352,7 +12767,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -12375,7 +12790,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -12398,7 +12813,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -12421,7 +12836,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -12444,7 +12859,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -12467,7 +12882,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12486,7 +12901,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -12509,7 +12924,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12528,7 +12943,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -12549,7 +12964,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12568,7 +12983,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -12589,7 +13004,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12608,7 +13023,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -12629,7 +13044,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12648,7 +13063,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -12671,7 +13086,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12690,7 +13105,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -12715,7 +13130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -12738,7 +13153,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -12761,7 +13176,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -12784,7 +13199,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -12807,7 +13222,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -12830,7 +13245,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -12853,7 +13268,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -12876,7 +13291,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -12899,7 +13314,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -12918,7 +13333,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -12941,7 +13356,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -12964,7 +13379,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -12987,7 +13402,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -13010,7 +13425,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13029,7 +13444,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -13052,7 +13467,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -13075,7 +13490,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -13100,7 +13515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13119,7 +13534,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -13144,7 +13559,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -13167,7 +13582,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13186,7 +13601,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -13207,7 +13622,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -13228,7 +13643,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -13251,7 +13666,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13270,7 +13685,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13289,7 +13704,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -13314,7 +13729,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -13349,7 +13764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -13357,13 +13772,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>462</v>
       </c>
@@ -13380,7 +13795,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>500</v>
       </c>
@@ -13397,7 +13812,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -13414,7 +13829,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>488</v>
       </c>
@@ -13428,7 +13843,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>456</v>
       </c>
@@ -13442,7 +13857,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>499</v>
       </c>
@@ -13456,7 +13871,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -13470,7 +13885,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -13484,7 +13899,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>489</v>
       </c>
@@ -13498,7 +13913,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>490</v>
       </c>
@@ -13512,7 +13927,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>491</v>
       </c>
@@ -13526,7 +13941,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>458</v>
       </c>
@@ -13540,7 +13955,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -13554,7 +13969,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>493</v>
       </c>
@@ -13568,7 +13983,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -13582,7 +13997,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>495</v>
       </c>
@@ -13596,7 +14011,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>461</v>
       </c>
@@ -13610,7 +14025,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>498</v>
       </c>
@@ -13624,7 +14039,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>497</v>
       </c>
@@ -13638,16 +14053,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
     </row>
   </sheetData>

--- a/spec/files/proxy.xlsx
+++ b/spec/files/proxy.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="23360" windowHeight="13820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="537">
   <si>
     <t>type</t>
   </si>
@@ -1630,6 +1630,15 @@
   </si>
   <si>
     <t>(double)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,6 +1741,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3063,7 +3078,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3128,6 +3143,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1319">
@@ -4754,17 +4776,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4788,18 +4810,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="21"/>
       <c r="B1" s="26"/>
       <c r="C1" s="21"/>
@@ -4809,7 +4831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>453</v>
       </c>
@@ -4819,7 +4841,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>454</v>
       </c>
@@ -4830,7 +4852,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>482</v>
       </c>
@@ -4841,7 +4863,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>463</v>
       </c>
@@ -4864,7 +4886,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28">
       <c r="A6" s="1" t="s">
         <v>464</v>
       </c>
@@ -4887,7 +4909,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>485</v>
       </c>
@@ -4901,7 +4923,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
@@ -4915,7 +4937,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>517</v>
       </c>
@@ -4927,7 +4949,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>518</v>
       </c>
@@ -4937,7 +4959,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>519</v>
       </c>
@@ -4947,7 +4969,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="13" customFormat="1">
       <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
@@ -4957,7 +4979,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -4968,7 +4990,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4976,7 +4998,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -4984,7 +5006,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -4996,7 +5018,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>477</v>
       </c>
@@ -5004,7 +5026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A21" s="12" t="s">
         <v>475</v>
       </c>
@@ -5016,7 +5038,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5024,7 +5046,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -5032,7 +5054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>473</v>
       </c>
@@ -5041,7 +5063,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -5055,7 +5077,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -5063,7 +5085,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
@@ -5081,7 +5103,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -5099,7 +5121,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -5149,25 +5171,25 @@
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5195,7 +5217,7 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5208,7 +5230,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5273,7 +5295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5284,7 +5306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5306,7 +5328,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5330,7 +5352,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5361,7 +5383,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5401,7 +5423,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5429,7 +5451,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5457,7 +5479,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5485,7 +5507,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5513,7 +5535,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5541,7 +5563,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5569,7 +5591,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5597,7 +5619,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5611,7 +5633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5634,7 +5656,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5670,7 +5692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5690,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5710,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5730,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5748,7 +5770,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5786,7 +5808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5804,7 +5826,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5842,7 +5864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5864,7 +5886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5889,7 +5911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5907,7 +5929,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5945,7 +5967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5967,7 +5989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -6013,28 +6035,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -6060,36 +6082,45 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="A2" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="29" t="s">
         <v>531</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>535</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30" t="s">
+        <v>536</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="18"/>
@@ -6101,7 +6132,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3"/>
@@ -6111,7 +6142,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6126,7 +6157,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6143,7 +6174,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6159,7 +6190,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="15"/>
@@ -6175,7 +6206,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6191,7 +6222,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6207,7 +6238,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6223,7 +6254,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6239,7 +6270,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6255,7 +6286,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6271,9 +6302,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1"/>
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1">
       <c r="C18" s="19"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -6281,10 +6312,10 @@
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1"/>
+    <row r="21" spans="1:14" customFormat="1"/>
+    <row r="22" spans="1:14">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6294,7 +6325,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6305,7 +6336,7 @@
       <c r="H23"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6315,7 +6346,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6326,7 +6357,7 @@
       <c r="H25"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6336,7 +6367,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6347,7 +6378,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6357,7 +6388,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6368,7 +6399,7 @@
       <c r="H29"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6378,7 +6409,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6396,6 +6427,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6407,19 +6443,19 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6438,7 +6474,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -6459,7 +6495,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -6482,7 +6518,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -6505,7 +6541,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -6528,7 +6564,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -6551,7 +6587,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -6574,7 +6610,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -6597,7 +6633,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -6620,7 +6656,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -6643,7 +6679,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6662,7 +6698,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -6683,7 +6719,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -6706,7 +6742,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -6729,7 +6765,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -6752,7 +6788,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -6775,7 +6811,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6798,7 +6834,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -6821,7 +6857,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6844,7 +6880,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6867,7 +6903,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6886,7 +6922,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6909,7 +6945,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6932,7 +6968,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6955,7 +6991,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6978,7 +7014,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -7001,7 +7037,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -7024,7 +7060,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -7047,7 +7083,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -7070,7 +7106,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -7093,7 +7129,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7112,7 +7148,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -7133,7 +7169,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -7156,7 +7192,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -7179,7 +7215,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -7202,7 +7238,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -7225,7 +7261,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -7248,7 +7284,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -7271,7 +7307,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -7294,7 +7330,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -7317,7 +7353,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7336,7 +7372,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -7357,7 +7393,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -7380,7 +7416,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -7403,7 +7439,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -7426,7 +7462,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -7449,7 +7485,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -7472,7 +7508,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -7495,7 +7531,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -7518,7 +7554,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7541,7 +7577,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7560,7 +7596,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7581,7 +7617,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7604,7 +7640,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -7627,7 +7663,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -7650,7 +7686,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7673,7 +7709,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7696,7 +7732,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7719,7 +7755,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7742,7 +7778,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7765,7 +7801,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7784,7 +7820,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7805,7 +7841,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -7830,7 +7866,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7853,7 +7889,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -7876,7 +7912,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7899,7 +7935,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7922,7 +7958,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7945,7 +7981,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7968,7 +8004,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7991,7 +8027,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -8014,7 +8050,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -8033,7 +8069,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -8054,7 +8090,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -8077,7 +8113,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -8102,7 +8138,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -8125,7 +8161,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -8148,7 +8184,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -8171,7 +8207,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -8194,7 +8230,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -8217,7 +8253,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -8240,7 +8276,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -8263,7 +8299,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -8286,7 +8322,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -8309,7 +8345,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -8332,7 +8368,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8351,7 +8387,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -8374,7 +8410,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -8397,7 +8433,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -8420,7 +8456,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -8443,7 +8479,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -8466,7 +8502,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -8489,7 +8525,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -8512,7 +8548,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -8535,7 +8571,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -8558,7 +8594,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8581,7 +8617,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8600,7 +8636,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8625,7 +8661,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8644,7 +8680,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8665,7 +8701,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8690,7 +8726,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8709,7 +8745,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8732,7 +8768,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8757,7 +8793,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8780,7 +8816,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8801,7 +8837,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8820,7 +8856,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8845,7 +8881,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -8868,7 +8904,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8891,7 +8927,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -8914,7 +8950,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8937,7 +8973,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8960,7 +8996,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8983,7 +9019,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -9002,7 +9038,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -9025,7 +9061,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -9048,7 +9084,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -9071,7 +9107,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -9090,7 +9126,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -9113,7 +9149,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -9136,7 +9172,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -9159,7 +9195,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -9182,7 +9218,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -9205,7 +9241,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -9228,7 +9264,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9247,7 +9283,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -9272,7 +9308,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -9295,7 +9331,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -9318,7 +9354,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -9341,7 +9377,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -9364,7 +9400,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -9387,7 +9423,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9410,7 +9446,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -9433,7 +9469,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -9456,7 +9492,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9475,7 +9511,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -9500,7 +9536,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -9521,7 +9557,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -9544,7 +9580,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -9567,7 +9603,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -9590,7 +9626,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -9613,7 +9649,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -9636,7 +9672,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -9659,7 +9695,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -9682,7 +9718,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -9705,7 +9741,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -9728,7 +9764,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -9751,7 +9787,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -9774,7 +9810,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -9797,7 +9833,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9816,7 +9852,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -9839,7 +9875,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9858,7 +9894,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -9881,7 +9917,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -9904,7 +9940,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9923,7 +9959,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -9948,7 +9984,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -9971,7 +10007,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -9994,7 +10030,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -10017,7 +10053,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -10040,7 +10076,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -10063,7 +10099,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -10086,7 +10122,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -10109,7 +10145,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -10132,7 +10168,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -10155,7 +10191,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10174,7 +10210,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -10199,7 +10235,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -10222,7 +10258,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -10245,7 +10281,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -10268,7 +10304,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -10291,7 +10327,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -10314,7 +10350,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -10337,7 +10373,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -10360,7 +10396,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -10383,7 +10419,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -10406,7 +10442,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10425,7 +10461,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -10448,7 +10484,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -10471,7 +10507,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -10494,7 +10530,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -10517,7 +10553,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10536,7 +10572,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -10559,7 +10595,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -10582,7 +10618,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -10605,7 +10641,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -10628,7 +10664,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10647,7 +10683,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -10668,7 +10704,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -10691,7 +10727,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10710,7 +10746,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -10733,7 +10769,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -10758,7 +10794,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -10779,7 +10815,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -10804,7 +10840,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -10829,7 +10865,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10848,7 +10884,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -10873,7 +10909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -10896,7 +10932,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -10919,7 +10955,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -10942,7 +10978,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -10965,7 +11001,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -10988,7 +11024,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -11011,7 +11047,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -11034,7 +11070,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -11057,7 +11093,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -11076,7 +11112,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -11101,7 +11137,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -11124,7 +11160,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -11147,7 +11183,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -11170,7 +11206,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -11193,7 +11229,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -11216,7 +11252,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -11239,7 +11275,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -11262,7 +11298,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -11285,7 +11321,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11304,7 +11340,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -11325,7 +11361,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -11348,7 +11384,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -11371,7 +11407,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -11394,7 +11430,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -11417,7 +11453,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -11440,7 +11476,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -11463,7 +11499,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -11486,7 +11522,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -11509,7 +11545,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -11532,7 +11568,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -11555,7 +11591,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -11578,7 +11614,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -11601,7 +11637,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -11624,7 +11660,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -11647,7 +11683,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -11670,7 +11706,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11689,7 +11725,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -11710,7 +11746,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -11733,7 +11769,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -11756,7 +11792,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -11779,7 +11815,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -11802,7 +11838,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -11825,7 +11861,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -11848,7 +11884,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -11871,7 +11907,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -11894,7 +11930,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -11917,7 +11953,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -11940,7 +11976,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -11963,7 +11999,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -11986,7 +12022,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -12009,7 +12045,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -12032,7 +12068,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -12055,7 +12091,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -12074,7 +12110,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -12099,7 +12135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -12122,7 +12158,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -12145,7 +12181,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -12168,7 +12204,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -12191,7 +12227,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12210,7 +12246,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -12235,7 +12271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -12258,7 +12294,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12277,7 +12313,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12296,7 +12332,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12315,7 +12351,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -12336,7 +12372,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -12359,7 +12395,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -12382,7 +12418,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -12405,7 +12441,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -12428,7 +12464,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -12451,7 +12487,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -12474,7 +12510,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -12497,7 +12533,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -12520,7 +12556,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -12543,7 +12579,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -12566,7 +12602,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12585,7 +12621,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -12608,7 +12644,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12627,7 +12663,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -12652,7 +12688,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -12675,7 +12711,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -12698,7 +12734,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -12721,7 +12757,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -12744,7 +12780,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -12767,7 +12803,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -12790,7 +12826,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -12813,7 +12849,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -12836,7 +12872,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -12859,7 +12895,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -12882,7 +12918,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12901,7 +12937,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -12924,7 +12960,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12943,7 +12979,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -12964,7 +13000,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12983,7 +13019,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -13004,7 +13040,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -13023,7 +13059,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -13044,7 +13080,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -13063,7 +13099,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -13086,7 +13122,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -13105,7 +13141,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -13130,7 +13166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -13153,7 +13189,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -13176,7 +13212,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -13199,7 +13235,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -13222,7 +13258,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -13245,7 +13281,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -13268,7 +13304,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -13291,7 +13327,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -13314,7 +13350,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13333,7 +13369,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -13356,7 +13392,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -13379,7 +13415,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -13402,7 +13438,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -13425,7 +13461,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13444,7 +13480,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -13467,7 +13503,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -13490,7 +13526,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -13515,7 +13551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13534,7 +13570,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -13559,7 +13595,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -13582,7 +13618,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13601,7 +13637,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -13622,7 +13658,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -13643,7 +13679,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -13666,7 +13702,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13685,7 +13721,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13704,7 +13740,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -13729,7 +13765,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -13772,13 +13808,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>462</v>
       </c>
@@ -13795,7 +13831,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>500</v>
       </c>
@@ -13812,7 +13848,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -13829,7 +13865,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>488</v>
       </c>
@@ -13843,7 +13879,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>456</v>
       </c>
@@ -13857,7 +13893,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>499</v>
       </c>
@@ -13871,7 +13907,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -13885,7 +13921,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -13899,7 +13935,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>489</v>
       </c>
@@ -13913,7 +13949,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>490</v>
       </c>
@@ -13927,7 +13963,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>491</v>
       </c>
@@ -13941,7 +13977,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>458</v>
       </c>
@@ -13955,7 +13991,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -13969,7 +14005,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>493</v>
       </c>
@@ -13983,7 +14019,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -13997,7 +14033,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>495</v>
       </c>
@@ -14011,7 +14047,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>461</v>
       </c>
@@ -14025,7 +14061,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>498</v>
       </c>
@@ -14039,7 +14075,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>497</v>
       </c>
@@ -14053,16 +14089,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="20"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="20"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="20"/>
     </row>
   </sheetData>
